--- a/test_data/swmm_data/gisswmm_curves.xlsx
+++ b/test_data/swmm_data/gisswmm_curves.xlsx
@@ -5,21 +5,23 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Q_GIS_Projekte\Projekte\Testgebiet_SWMM\plugin_testprojekt\swmm_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Q_GIS_Projekte\Projekte\Testgebiet_SWMM\generate_swmm_inp\test_data\swmm_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="STORAGE" sheetId="1" r:id="rId1"/>
-    <sheet name="Pump1" sheetId="2" r:id="rId2"/>
-    <sheet name="Pump2" sheetId="3" r:id="rId3"/>
-    <sheet name="Pump3" sheetId="4" r:id="rId4"/>
-    <sheet name="Pump4" sheetId="5" r:id="rId5"/>
+    <sheet name="Pump1" sheetId="2" r:id="rId1"/>
+    <sheet name="Pump2" sheetId="3" r:id="rId2"/>
+    <sheet name="Pump3" sheetId="4" r:id="rId3"/>
+    <sheet name="Pump4" sheetId="5" r:id="rId4"/>
+    <sheet name="STORAGE" sheetId="1" r:id="rId5"/>
+    <sheet name="Rating" sheetId="6" r:id="rId6"/>
+    <sheet name="Weir" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Pump2!$A$1:$D$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Pump2!$A$1:$D$3</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,6 +33,238 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Jannik Schilling</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Jannik Schilling:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+m³</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Jannik Schilling:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+m³/s</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Jannik Schilling</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Jannik Schilling:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+m</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Jannik Schilling:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+m³</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Jannik Schilling</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Jannik Schilling:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+m</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Jannik Schilling:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+m³/s</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Jannik Schilling</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Jannik Schilling:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+m</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Jannik Schilling:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+m³</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Jannik Schilling</author>
@@ -88,123 +322,7 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Jannik Schilling</author>
-  </authors>
-  <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Jannik Schilling:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-m³</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Jannik Schilling:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-m³/s</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Jannik Schilling</author>
-  </authors>
-  <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Jannik Schilling:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-m</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Jannik Schilling:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-m³</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Jannik Schilling</author>
@@ -262,7 +380,7 @@
 </comments>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Jannik Schilling</author>
@@ -292,36 +410,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Jannik Schilling:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-m³</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="17">
   <si>
     <t>;</t>
   </si>
@@ -357,6 +451,21 @@
   </si>
   <si>
     <t>PC_1</t>
+  </si>
+  <si>
+    <t>rc_02</t>
+  </si>
+  <si>
+    <t>Head/Depth</t>
+  </si>
+  <si>
+    <t>Outflow</t>
+  </si>
+  <si>
+    <t>Coefficient</t>
+  </si>
+  <si>
+    <t>wc_1</t>
   </si>
 </sst>
 </file>
@@ -437,7 +546,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -445,6 +554,7 @@
     <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -725,6 +835,183 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>0.5</v>
+      </c>
+      <c r="C3">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>1.5</v>
+      </c>
+      <c r="C5">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>0.02</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D3"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H826"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4209,12 +4496,123 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:E6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4224,160 +4622,57 @@
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>1E-3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B3">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>1E-3</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>0.01</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B5">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>0.02</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:D3"/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>8</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/test_data/swmm_data/gisswmm_curves.xlsx
+++ b/test_data/swmm_data/gisswmm_curves.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Q_GIS_Projekte\Projekte\Testgebiet_SWMM\generate_swmm_inp\test_data\swmm_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schilling\AppData\Roaming\QGIS\QGIS3\profiles\default\python\plugins\generate_swmm_inp\test_data\swmm_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Pump1" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,10 @@
     <sheet name="STORAGE" sheetId="1" r:id="rId5"/>
     <sheet name="Rating" sheetId="6" r:id="rId6"/>
     <sheet name="Weir" sheetId="7" r:id="rId7"/>
+    <sheet name="Tidal" sheetId="8" r:id="rId8"/>
+    <sheet name="Control" sheetId="9" r:id="rId9"/>
+    <sheet name="Diversion" sheetId="10" r:id="rId10"/>
+    <sheet name="Shape" sheetId="11" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Pump2!$A$1:$D$3</definedName>
@@ -415,7 +419,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="22">
   <si>
     <t>;</t>
   </si>
@@ -436,9 +440,6 @@
   </si>
   <si>
     <t>Head</t>
-  </si>
-  <si>
-    <t>Bemerkung</t>
   </si>
   <si>
     <t>Notes</t>
@@ -467,6 +468,24 @@
   <si>
     <t>wc_1</t>
   </si>
+  <si>
+    <t>Hour_of_Day</t>
+  </si>
+  <si>
+    <t>Stage</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Setting</t>
+  </si>
+  <si>
+    <t>Inflow</t>
+  </si>
+  <si>
+    <t>Width</t>
+  </si>
 </sst>
 </file>
 
@@ -475,7 +494,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -504,8 +523,13 @@
       <name val="Segoe UI"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -524,8 +548,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -542,11 +572,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -555,6 +600,12 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -838,7 +889,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:E6"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -854,12 +905,70 @@
         <v>5</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -884,12 +993,12 @@
         <v>5</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -900,7 +1009,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>0.5</v>
@@ -911,7 +1020,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -922,7 +1031,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>1.5</v>
@@ -933,7 +1042,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -971,7 +1080,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1001,7 +1110,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1015,7 +1124,7 @@
   <dimension ref="A1:H826"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,7 +1148,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -1050,7 +1159,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>0.1</v>
@@ -1061,7 +1170,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1">
         <v>0.2</v>
@@ -1072,7 +1181,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1">
         <v>0.3</v>
@@ -1083,7 +1192,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1">
         <v>0.4</v>
@@ -1094,7 +1203,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1">
         <v>0.5</v>
@@ -1105,7 +1214,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1">
         <v>0.6</v>
@@ -1116,7 +1225,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1">
         <v>0.7</v>
@@ -1127,7 +1236,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0.8</v>
@@ -1138,7 +1247,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="1">
         <v>0.9</v>
@@ -1149,7 +1258,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
@@ -1160,7 +1269,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="1">
         <v>1.1000000000000001</v>
@@ -1171,7 +1280,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" s="1">
         <v>1.2</v>
@@ -1182,7 +1291,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" s="1">
         <v>1.3</v>
@@ -1193,7 +1302,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B16" s="1">
         <v>1.4</v>
@@ -1204,7 +1313,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17" s="1">
         <v>1.5</v>
@@ -1215,7 +1324,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18" s="1">
         <v>1.6</v>
@@ -1229,7 +1338,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B19" s="1">
         <v>1.7</v>
@@ -1240,7 +1349,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B20" s="1">
         <v>1.8</v>
@@ -1251,7 +1360,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B21" s="1">
         <v>1.9</v>
@@ -1269,7 +1378,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B23" s="1">
         <v>0</v>
@@ -1280,7 +1389,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B24" s="1">
         <v>0.5</v>
@@ -4500,7 +4609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -4514,18 +4623,18 @@
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="D1" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4536,7 +4645,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -4547,7 +4656,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -4558,7 +4667,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -4569,7 +4678,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -4580,7 +4689,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -4591,7 +4700,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -4625,15 +4734,15 @@
         <v>6</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4644,7 +4753,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -4655,7 +4764,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -4666,7 +4775,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -4679,4 +4788,62 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/test_data/swmm_data/gisswmm_curves.xlsx
+++ b/test_data/swmm_data/gisswmm_curves.xlsx
@@ -4,17 +4,17 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Pump2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Rating" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Storage" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Weir" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Pump1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Pump3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Pump4" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Tidal" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Tidal" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Weir" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Pump1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Pump3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Pump4" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="Control" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="Diversion" sheetId="10" state="visible" r:id="rId10"/>
     <sheet name="Shape" sheetId="11" state="visible" r:id="rId11"/>
@@ -63,18 +63,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -536,7 +536,7 @@
       <c r="D6" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -577,7 +577,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -618,7 +618,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -757,7 +757,7 @@
       <c r="D8" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1106,11 +1106,136 @@
       <c r="D23" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Hour_of_Day</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Stage</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>tdc_1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>tdc_1</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>tdc_1</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>tdc_1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>tdc_1</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>tdc_1</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1203,48 +1328,7 @@
       <c r="D5" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Volume</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Flow</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Notes</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1270,7 +1354,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Head</t>
+          <t>Volume</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -1285,7 +1369,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1311,7 +1395,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Depth</t>
+          <t>Head</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -1326,7 +1410,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1352,12 +1436,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Hour_of_Day</t>
+          <t>Depth</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Stage</t>
+          <t>Flow</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -1367,7 +1451,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1408,6 +1492,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>